--- a/assets/seleksi_peserta.xlsx
+++ b/assets/seleksi_peserta.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No. Peserta</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Tanggal Ujian</t>
+  </si>
+  <si>
+    <t>Waktu Ujian</t>
   </si>
 </sst>
 </file>
@@ -78,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -375,10 +379,11 @@
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,11 +405,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>